--- a/data/trans_orig/P6712-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD39A9C2-0213-456C-B857-5F2D86B16B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DF935E4-A298-4576-AF6E-F7EBF6B3C9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42B716CB-3953-4B8F-BC45-E49E22D4EC70}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1438A947-C9B7-4F79-9E26-A50B89902F64}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="523">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -78,7 +78,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>14,82%</t>
+    <t>12,29%</t>
   </si>
   <si>
     <t>0%</t>
@@ -90,7 +90,7 @@
     <t>2,01%</t>
   </si>
   <si>
-    <t>9,87%</t>
+    <t>10,04%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -102,13 +102,13 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>21,77%</t>
+    <t>21,88%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>7,8%</t>
+    <t>7,24%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -117,1480 +117,1495 @@
     <t>18,52%</t>
   </si>
   <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que tenga iniciativa en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>22,11%</t>
   </si>
   <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que tenga iniciativa en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>29,71%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
   </si>
   <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>38,59%</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325E0B99-A016-44C3-8C71-B7D691BE16A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AF9AF7-DB5D-4D67-AFFA-FAC59E830F1F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2470,7 +2485,7 @@
         <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2500,13 @@
         <v>15666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2500,13 +2515,13 @@
         <v>9864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -2515,13 +2530,13 @@
         <v>25530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2551,13 @@
         <v>27107</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -2551,13 +2566,13 @@
         <v>16184</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -2566,7 +2581,7 @@
         <v>43291</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>79</v>
@@ -2757,13 +2772,13 @@
         <v>12803</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2772,13 +2787,13 @@
         <v>33355</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2808,13 @@
         <v>18043</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2808,13 +2823,13 @@
         <v>10545</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -2823,13 +2838,13 @@
         <v>28588</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2859,13 @@
         <v>72101</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -2859,13 +2874,13 @@
         <v>48500</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>110</v>
@@ -2874,13 +2889,13 @@
         <v>120601</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2910,13 @@
         <v>98695</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -2910,13 +2925,13 @@
         <v>68731</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>152</v>
@@ -2925,13 +2940,13 @@
         <v>167426</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2961,13 @@
         <v>199198</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>117</v>
@@ -2961,13 +2976,13 @@
         <v>128683</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>300</v>
@@ -2976,13 +2991,13 @@
         <v>327880</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,7 +3053,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3050,13 +3065,13 @@
         <v>13251</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3065,13 +3080,13 @@
         <v>11225</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -3080,13 +3095,13 @@
         <v>24476</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,10 +3221,10 @@
         <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -3218,13 +3233,13 @@
         <v>54087</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -3233,10 +3248,10 @@
         <v>113705</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>179</v>
@@ -3361,10 +3376,10 @@
         <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -3373,13 +3388,13 @@
         <v>11572</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -3388,13 +3403,13 @@
         <v>27781</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3424,13 @@
         <v>15864</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -3424,13 +3439,13 @@
         <v>12804</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -3439,13 +3454,13 @@
         <v>28668</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3475,13 @@
         <v>71697</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>58</v>
@@ -3475,13 +3490,13 @@
         <v>58727</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>126</v>
@@ -3490,13 +3505,13 @@
         <v>130425</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3526,13 @@
         <v>124801</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -3526,13 +3541,13 @@
         <v>73320</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>190</v>
@@ -3541,13 +3556,13 @@
         <v>198121</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3577,13 @@
         <v>189203</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>139</v>
@@ -3577,13 +3592,13 @@
         <v>144037</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>320</v>
@@ -3592,13 +3607,13 @@
         <v>333241</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3681,13 @@
         <v>59544</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>40</v>
@@ -3681,13 +3696,13 @@
         <v>42872</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>97</v>
@@ -3696,13 +3711,13 @@
         <v>102416</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3732,13 @@
         <v>66341</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>36</v>
@@ -3732,13 +3747,13 @@
         <v>39618</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>96</v>
@@ -3747,13 +3762,13 @@
         <v>105959</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3783,13 @@
         <v>223367</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>150</v>
@@ -3783,13 +3798,13 @@
         <v>163052</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>360</v>
@@ -3798,13 +3813,13 @@
         <v>386419</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3834,13 @@
         <v>334092</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>223</v>
@@ -3834,28 +3849,28 @@
         <v>243796</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>547</v>
       </c>
       <c r="N37" s="7">
-        <v>577888</v>
+        <v>577887</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3885,13 @@
         <v>732481</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>421</v>
@@ -3885,13 +3900,13 @@
         <v>452182</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>1099</v>
@@ -3900,13 +3915,13 @@
         <v>1184663</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3963,7 @@
         <v>2199</v>
       </c>
       <c r="N39" s="7">
-        <v>2357345</v>
+        <v>2357344</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>53</v>
@@ -3962,7 +3977,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3983,7 +3998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E90080C-C721-4125-B1B8-F509429AAB0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5E94B2-9111-4561-9141-24D072A38F2B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4000,7 +4015,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4113,7 +4128,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4176,10 +4191,10 @@
         <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4188,13 +4203,13 @@
         <v>6682</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4224,13 @@
         <v>6188</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4224,13 +4239,13 @@
         <v>3535</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4239,13 +4254,13 @@
         <v>9722</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4275,13 @@
         <v>13167</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4275,13 +4290,13 @@
         <v>8411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4290,13 +4305,13 @@
         <v>21578</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4326,13 @@
         <v>20635</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4326,13 +4341,13 @@
         <v>12422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -4341,13 +4356,13 @@
         <v>33057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4430,13 @@
         <v>12364</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>320</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4430,13 +4445,13 @@
         <v>11864</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4445,13 +4460,13 @@
         <v>24228</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4481,13 @@
         <v>25496</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4481,13 +4496,13 @@
         <v>15076</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -4496,13 +4511,13 @@
         <v>40572</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4532,13 @@
         <v>33385</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -4532,13 +4547,13 @@
         <v>31783</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -4547,13 +4562,13 @@
         <v>65168</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4583,13 @@
         <v>70384</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -4583,13 +4598,13 @@
         <v>38946</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M13" s="7">
         <v>105</v>
@@ -4598,13 +4613,13 @@
         <v>109330</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4634,13 @@
         <v>57640</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4634,13 +4649,13 @@
         <v>39809</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -4649,13 +4664,13 @@
         <v>97448</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4738,13 @@
         <v>9328</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4756,10 +4771,10 @@
         <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,7 +4789,7 @@
         <v>30220</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>372</v>
@@ -4789,13 +4804,13 @@
         <v>24290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -4804,13 +4819,13 @@
         <v>54510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4840,13 @@
         <v>88232</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -4840,13 +4855,13 @@
         <v>56678</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M18" s="7">
         <v>137</v>
@@ -4855,13 +4870,13 @@
         <v>144909</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4891,13 @@
         <v>113771</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -4891,13 +4906,13 @@
         <v>69643</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>175</v>
@@ -4906,7 +4921,7 @@
         <v>183413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>395</v>
@@ -5019,7 +5034,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5034,10 +5049,10 @@
         <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -5049,7 +5064,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>409</v>
@@ -5067,7 +5082,7 @@
         <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5097,13 @@
         <v>40143</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -5166,10 +5181,10 @@
         <v>427</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>428</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5199,13 @@
         <v>93703</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -5199,13 +5214,13 @@
         <v>66438</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>153</v>
@@ -5214,13 +5229,13 @@
         <v>160141</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5250,13 @@
         <v>95992</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -5250,13 +5265,13 @@
         <v>75097</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -5265,13 +5280,13 @@
         <v>171089</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5354,13 @@
         <v>18813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -5354,13 +5369,13 @@
         <v>16221</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -5369,13 +5384,13 @@
         <v>35034</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>238</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5405,13 @@
         <v>24944</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -5405,13 +5420,13 @@
         <v>19223</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>245</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -5420,13 +5435,13 @@
         <v>44167</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>246</v>
+        <v>460</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5456,13 @@
         <v>72146</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>460</v>
+        <v>173</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="H30" s="7">
         <v>61</v>
@@ -5459,10 +5474,10 @@
         <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M30" s="7">
         <v>132</v>
@@ -5471,13 +5486,13 @@
         <v>134961</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>282</v>
+        <v>466</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5507,13 @@
         <v>101336</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H31" s="7">
         <v>90</v>
@@ -5507,13 +5522,13 @@
         <v>95426</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M31" s="7">
         <v>192</v>
@@ -5522,13 +5537,13 @@
         <v>196763</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5558,13 @@
         <v>183932</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>474</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>122</v>
@@ -5558,13 +5573,13 @@
         <v>131788</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M32" s="7">
         <v>300</v>
@@ -5573,13 +5588,13 @@
         <v>315720</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5662,13 @@
         <v>68148</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>481</v>
+        <v>407</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>199</v>
+        <v>486</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -5662,13 +5677,13 @@
         <v>57800</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>482</v>
+        <v>250</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M34" s="7">
         <v>117</v>
@@ -5677,13 +5692,13 @@
         <v>125948</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>377</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5713,13 @@
         <v>123726</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>486</v>
+        <v>325</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="H35" s="7">
         <v>103</v>
@@ -5713,13 +5728,13 @@
         <v>101727</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="M35" s="7">
         <v>218</v>
@@ -5728,13 +5743,13 @@
         <v>225454</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>492</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5764,13 @@
         <v>307397</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="H36" s="7">
         <v>231</v>
@@ -5764,13 +5779,13 @@
         <v>230852</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>498</v>
+        <v>314</v>
       </c>
       <c r="M36" s="7">
         <v>514</v>
@@ -5779,13 +5794,13 @@
         <v>538249</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>499</v>
+        <v>21</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>317</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5815,13 @@
         <v>392361</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="H37" s="7">
         <v>273</v>
@@ -5815,13 +5830,13 @@
         <v>278864</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>224</v>
+        <v>510</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="M37" s="7">
         <v>647</v>
@@ -5830,13 +5845,13 @@
         <v>671225</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5866,13 @@
         <v>530689</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="H38" s="7">
         <v>350</v>
@@ -5866,13 +5881,13 @@
         <v>367929</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="M38" s="7">
         <v>840</v>
@@ -5881,13 +5896,13 @@
         <v>898618</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>516</v>
+        <v>218</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,7 +5958,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6712-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DF935E4-A298-4576-AF6E-F7EBF6B3C9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7EC5125-9A97-4055-A3BB-3F5A08F0C8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1438A947-C9B7-4F79-9E26-A50B89902F64}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09E08E09-BE5E-4396-AD46-E5BE86B515BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="510">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -78,1534 +78,1495 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que tenga iniciativa en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que tenga iniciativa en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>10,35%</t>
+    <t>10,33%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
+    <t>8,04%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>22,26%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
+    <t>29,62%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>38,59%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
 </sst>
 </file>
@@ -2017,7 +1978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AF9AF7-DB5D-4D67-AFFA-FAC59E830F1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EA2F7C-D81F-4478-8AC0-1D03D8282298}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2324,19 +2285,19 @@
         <v>17685</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7">
         <v>30</v>
@@ -2345,13 +2306,13 @@
         <v>30625</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -2360,13 +2321,13 @@
         <v>15261</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -2375,13 +2336,13 @@
         <v>45886</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2357,13 @@
         <v>51733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -2411,13 +2372,13 @@
         <v>25186</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>76</v>
@@ -2426,18 +2387,18 @@
         <v>76919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2449,13 +2410,13 @@
         <v>7989</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2464,13 +2425,13 @@
         <v>7271</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2479,13 +2440,13 @@
         <v>15260</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2461,13 @@
         <v>15666</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2515,13 +2476,13 @@
         <v>9864</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -2530,13 +2491,13 @@
         <v>25530</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2512,13 @@
         <v>27107</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -2566,13 +2527,13 @@
         <v>16184</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -2581,7 +2542,7 @@
         <v>43291</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>79</v>
@@ -2644,7 +2605,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>118</v>
@@ -2704,13 +2665,13 @@
         <v>217204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>127</v>
@@ -2719,13 +2680,13 @@
         <v>135078</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>333</v>
@@ -2734,13 +2695,13 @@
         <v>352282</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,7 +2733,7 @@
         <v>12803</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>103</v>
@@ -2952,7 +2913,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
         <v>183</v>
@@ -3012,13 +2973,13 @@
         <v>408589</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>244</v>
@@ -3027,13 +2988,13 @@
         <v>269262</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -3042,13 +3003,13 @@
         <v>677850</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,16 +3212,16 @@
         <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7">
         <v>166</v>
@@ -3269,13 +3230,13 @@
         <v>188011</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>94</v>
@@ -3284,7 +3245,7 @@
         <v>102396</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>184</v>
@@ -3320,13 +3281,13 @@
         <v>320525</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>190</v>
@@ -3335,13 +3296,13 @@
         <v>211533</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>480</v>
@@ -3350,13 +3311,13 @@
         <v>532058</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,10 +3337,10 @@
         <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -3388,13 +3349,13 @@
         <v>11572</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -3403,10 +3364,10 @@
         <v>27781</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>197</v>
@@ -3442,10 +3403,10 @@
         <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -3454,13 +3415,13 @@
         <v>28668</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3436,13 @@
         <v>71697</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>58</v>
@@ -3490,13 +3451,13 @@
         <v>58727</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>126</v>
@@ -3505,13 +3466,13 @@
         <v>130425</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3487,13 @@
         <v>124801</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -3541,13 +3502,13 @@
         <v>73320</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>190</v>
@@ -3556,19 +3517,19 @@
         <v>198121</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7">
         <v>181</v>
@@ -3577,13 +3538,13 @@
         <v>189203</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>139</v>
@@ -3592,13 +3553,13 @@
         <v>144037</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>320</v>
@@ -3607,13 +3568,13 @@
         <v>333241</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3589,13 @@
         <v>417774</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7">
         <v>287</v>
@@ -3643,13 +3604,13 @@
         <v>300460</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M33" s="7">
         <v>690</v>
@@ -3658,13 +3619,13 @@
         <v>718235</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3642,13 @@
         <v>59544</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>40</v>
@@ -3696,13 +3657,13 @@
         <v>42872</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>97</v>
@@ -3711,13 +3672,13 @@
         <v>102416</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3693,13 @@
         <v>66341</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>36</v>
@@ -3747,13 +3708,13 @@
         <v>39618</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>96</v>
@@ -3762,13 +3723,13 @@
         <v>105959</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3744,13 @@
         <v>223367</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="H36" s="7">
         <v>150</v>
@@ -3798,13 +3759,13 @@
         <v>163052</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>360</v>
@@ -3813,13 +3774,13 @@
         <v>386419</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3795,13 @@
         <v>334092</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>223</v>
@@ -3849,13 +3810,13 @@
         <v>243796</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>547</v>
@@ -3864,19 +3825,19 @@
         <v>577887</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="7">
         <v>678</v>
@@ -3885,13 +3846,13 @@
         <v>732481</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>271</v>
+        <v>186</v>
       </c>
       <c r="H38" s="7">
         <v>421</v>
@@ -3900,13 +3861,13 @@
         <v>452182</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M38" s="7">
         <v>1099</v>
@@ -3915,13 +3876,13 @@
         <v>1184663</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3897,13 @@
         <v>1415825</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H39" s="7">
         <v>870</v>
@@ -3951,13 +3912,13 @@
         <v>941520</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M39" s="7">
         <v>2199</v>
@@ -3966,18 +3927,18 @@
         <v>2357344</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3998,7 +3959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5E94B2-9111-4561-9141-24D072A38F2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9CF40B-6CDA-4834-8034-B42A1B7ABA3C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4015,7 +3976,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4128,7 +4089,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4137,13 +4098,13 @@
         <v>1764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4152,13 +4113,13 @@
         <v>2872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4134,13 @@
         <v>2923</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4188,13 +4149,13 @@
         <v>3759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4203,13 +4164,13 @@
         <v>6682</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4185,13 @@
         <v>6188</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4239,13 +4200,13 @@
         <v>3535</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>297</v>
+        <v>155</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4254,13 +4215,13 @@
         <v>9722</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4236,13 @@
         <v>13167</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4290,13 +4251,13 @@
         <v>8411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4305,19 +4266,19 @@
         <v>21578</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7">
         <v>20</v>
@@ -4326,13 +4287,13 @@
         <v>20635</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4341,13 +4302,13 @@
         <v>12422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -4356,13 +4317,13 @@
         <v>33057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>316</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4338,13 @@
         <v>44021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4392,13 +4353,13 @@
         <v>29891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -4407,18 +4368,18 @@
         <v>73912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4430,13 +4391,13 @@
         <v>12364</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4445,13 +4406,13 @@
         <v>11864</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4460,13 +4421,13 @@
         <v>24228</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4442,13 @@
         <v>25496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4496,13 +4457,13 @@
         <v>15076</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>332</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -4511,13 +4472,13 @@
         <v>40572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4493,13 @@
         <v>33385</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -4547,13 +4508,13 @@
         <v>31783</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -4562,13 +4523,13 @@
         <v>65168</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>344</v>
+        <v>213</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4544,13 @@
         <v>70384</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -4598,13 +4559,13 @@
         <v>38946</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
         <v>105</v>
@@ -4613,19 +4574,19 @@
         <v>109330</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>53</v>
@@ -4634,13 +4595,13 @@
         <v>57640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4649,13 +4610,13 @@
         <v>39809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>358</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -4664,13 +4625,13 @@
         <v>97448</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4646,13 @@
         <v>199269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -4700,13 +4661,13 @@
         <v>137478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>330</v>
@@ -4715,13 +4676,13 @@
         <v>336747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4699,13 @@
         <v>9328</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4753,13 +4714,13 @@
         <v>14347</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4768,13 +4729,13 @@
         <v>23675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4750,13 @@
         <v>30220</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4804,13 +4765,13 @@
         <v>24290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -4819,13 +4780,13 @@
         <v>54510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4801,13 @@
         <v>88232</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -4855,13 +4816,13 @@
         <v>56678</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="M18" s="7">
         <v>137</v>
@@ -4870,13 +4831,13 @@
         <v>144909</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4852,13 @@
         <v>113771</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -4906,13 +4867,13 @@
         <v>69643</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>175</v>
@@ -4921,19 +4882,19 @@
         <v>183413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
         <v>152</v>
@@ -4942,13 +4903,13 @@
         <v>172490</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>101</v>
@@ -4957,13 +4918,13 @@
         <v>108814</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>253</v>
@@ -4972,13 +4933,13 @@
         <v>281304</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4954,13 @@
         <v>414041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -5008,13 +4969,13 @@
         <v>273771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>639</v>
@@ -5023,13 +4984,13 @@
         <v>687812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5007,13 @@
         <v>26535</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -5064,10 +5025,10 @@
         <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -5076,13 +5037,13 @@
         <v>40138</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5058,13 @@
         <v>40143</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -5112,13 +5073,13 @@
         <v>39380</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>75</v>
@@ -5127,13 +5088,13 @@
         <v>79523</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>418</v>
+        <v>13</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5109,13 @@
         <v>107447</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="H24" s="7">
         <v>75</v>
@@ -5163,13 +5124,13 @@
         <v>76041</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>424</v>
+        <v>283</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>425</v>
+        <v>329</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="M24" s="7">
         <v>169</v>
@@ -5178,13 +5139,13 @@
         <v>183488</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5160,13 @@
         <v>93703</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -5214,13 +5175,13 @@
         <v>66438</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="M25" s="7">
         <v>153</v>
@@ -5229,19 +5190,19 @@
         <v>160141</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7">
         <v>87</v>
@@ -5250,13 +5211,13 @@
         <v>95992</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -5265,13 +5226,13 @@
         <v>75097</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -5280,13 +5241,13 @@
         <v>171089</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5262,13 @@
         <v>363820</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -5316,13 +5277,13 @@
         <v>270558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -5331,13 +5292,13 @@
         <v>634378</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5315,13 @@
         <v>18813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -5369,13 +5330,13 @@
         <v>16221</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -5384,13 +5345,13 @@
         <v>35034</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>238</v>
+        <v>439</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5366,13 @@
         <v>24944</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>160</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -5420,13 +5381,13 @@
         <v>19223</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -5435,13 +5396,13 @@
         <v>44167</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>447</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5417,13 @@
         <v>72146</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="H30" s="7">
         <v>61</v>
@@ -5474,10 +5435,10 @@
         <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="M30" s="7">
         <v>132</v>
@@ -5486,13 +5447,13 @@
         <v>134961</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5468,13 @@
         <v>101336</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="H31" s="7">
         <v>90</v>
@@ -5522,13 +5483,13 @@
         <v>95426</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="M31" s="7">
         <v>192</v>
@@ -5537,19 +5498,19 @@
         <v>196763</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7">
         <v>178</v>
@@ -5558,13 +5519,13 @@
         <v>183932</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>468</v>
       </c>
       <c r="H32" s="7">
         <v>122</v>
@@ -5573,13 +5534,13 @@
         <v>131788</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="M32" s="7">
         <v>300</v>
@@ -5588,13 +5549,13 @@
         <v>315720</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5570,13 @@
         <v>401171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7">
         <v>307</v>
@@ -5624,13 +5585,13 @@
         <v>325474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M33" s="7">
         <v>700</v>
@@ -5639,13 +5600,13 @@
         <v>726645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5623,13 @@
         <v>68148</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>487</v>
+        <v>116</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -5677,13 +5638,13 @@
         <v>57800</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>250</v>
+        <v>477</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>488</v>
+        <v>56</v>
       </c>
       <c r="M34" s="7">
         <v>117</v>
@@ -5692,13 +5653,13 @@
         <v>125948</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>490</v>
+        <v>60</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5674,13 @@
         <v>123726</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="H35" s="7">
         <v>103</v>
@@ -5728,13 +5689,13 @@
         <v>101727</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>496</v>
+        <v>65</v>
       </c>
       <c r="M35" s="7">
         <v>218</v>
@@ -5743,13 +5704,13 @@
         <v>225454</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>408</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5725,13 @@
         <v>307397</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>499</v>
+        <v>214</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="H36" s="7">
         <v>231</v>
@@ -5779,13 +5740,13 @@
         <v>230852</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>314</v>
+        <v>491</v>
       </c>
       <c r="M36" s="7">
         <v>514</v>
@@ -5794,13 +5755,13 @@
         <v>538249</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>21</v>
+        <v>422</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>505</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5776,13 @@
         <v>392361</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="H37" s="7">
         <v>273</v>
@@ -5830,13 +5791,13 @@
         <v>278864</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>510</v>
+        <v>126</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="M37" s="7">
         <v>647</v>
@@ -5845,19 +5806,19 @@
         <v>671225</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="7">
         <v>490</v>
@@ -5866,13 +5827,13 @@
         <v>530689</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="H38" s="7">
         <v>350</v>
@@ -5881,13 +5842,13 @@
         <v>367929</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="M38" s="7">
         <v>840</v>
@@ -5896,13 +5857,13 @@
         <v>898618</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,13 +5878,13 @@
         <v>1422322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H39" s="7">
         <v>1013</v>
@@ -5932,13 +5893,13 @@
         <v>1037172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M39" s="7">
         <v>2336</v>
@@ -5947,18 +5908,18 @@
         <v>2459494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6712-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7EC5125-9A97-4055-A3BB-3F5A08F0C8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D87E902-890A-4FE6-9D11-85023849893D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09E08E09-BE5E-4396-AD46-E5BE86B515BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE37AF73-C21B-4F1E-ABB2-299C75FCB75B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="518">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -78,1495 +78,1519 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que tenga iniciativa en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>7,4%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que tenga iniciativa en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>29,62%</t>
+    <t>29,71%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
   </si>
   <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +2002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EA2F7C-D81F-4478-8AC0-1D03D8282298}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044B9856-67EB-4965-BC14-9E21730FF94B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2285,19 +2309,19 @@
         <v>17685</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
         <v>30</v>
@@ -2306,13 +2330,13 @@
         <v>30625</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -2321,13 +2345,13 @@
         <v>15261</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -2336,13 +2360,13 @@
         <v>45886</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2381,13 @@
         <v>51733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -2372,13 +2396,13 @@
         <v>25186</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>76</v>
@@ -2387,18 +2411,18 @@
         <v>76919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2410,13 +2434,13 @@
         <v>7989</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2425,13 +2449,13 @@
         <v>7271</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2440,13 +2464,13 @@
         <v>15260</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,7 +2629,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
         <v>118</v>
@@ -2665,13 +2689,13 @@
         <v>217204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
         <v>127</v>
@@ -2680,13 +2704,13 @@
         <v>135078</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
         <v>333</v>
@@ -2695,13 +2719,13 @@
         <v>352282</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2757,13 @@
         <v>12803</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2748,13 +2772,13 @@
         <v>33355</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2793,13 @@
         <v>18043</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2784,13 +2808,13 @@
         <v>10545</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -2799,13 +2823,13 @@
         <v>28588</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2844,13 @@
         <v>72101</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -2835,13 +2859,13 @@
         <v>48500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>110</v>
@@ -2850,13 +2874,13 @@
         <v>120601</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2895,13 @@
         <v>98695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -2886,13 +2910,13 @@
         <v>68731</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>152</v>
@@ -2901,19 +2925,19 @@
         <v>167426</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
         <v>183</v>
@@ -2922,13 +2946,13 @@
         <v>199198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>117</v>
@@ -2937,13 +2961,13 @@
         <v>128683</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>300</v>
@@ -2952,13 +2976,13 @@
         <v>327880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2997,13 @@
         <v>408589</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
         <v>244</v>
@@ -2988,13 +3012,13 @@
         <v>269262</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -3003,18 +3027,18 @@
         <v>677850</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3026,13 +3050,13 @@
         <v>13251</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3041,13 +3065,13 @@
         <v>11225</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -3056,13 +3080,13 @@
         <v>24476</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,10 +3206,10 @@
         <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -3194,13 +3218,13 @@
         <v>54087</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -3209,19 +3233,19 @@
         <v>113705</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
         <v>166</v>
@@ -3230,13 +3254,13 @@
         <v>188011</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>94</v>
@@ -3245,7 +3269,7 @@
         <v>102396</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>184</v>
@@ -3281,13 +3305,13 @@
         <v>320525</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>190</v>
@@ -3296,13 +3320,13 @@
         <v>211533</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>480</v>
@@ -3311,13 +3335,13 @@
         <v>532058</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,10 +3391,10 @@
         <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3409,13 @@
         <v>15864</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -3400,13 +3424,13 @@
         <v>12804</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -3415,13 +3439,13 @@
         <v>28668</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3460,13 @@
         <v>71697</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>58</v>
@@ -3451,13 +3475,13 @@
         <v>58727</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>126</v>
@@ -3466,13 +3490,13 @@
         <v>130425</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3511,13 @@
         <v>124801</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -3502,13 +3526,13 @@
         <v>73320</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>190</v>
@@ -3517,19 +3541,19 @@
         <v>198121</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7">
         <v>181</v>
@@ -3538,13 +3562,13 @@
         <v>189203</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>139</v>
@@ -3553,13 +3577,13 @@
         <v>144037</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>320</v>
@@ -3568,13 +3592,13 @@
         <v>333241</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3613,13 @@
         <v>417774</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H33" s="7">
         <v>287</v>
@@ -3604,13 +3628,13 @@
         <v>300460</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M33" s="7">
         <v>690</v>
@@ -3619,13 +3643,13 @@
         <v>718235</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3666,13 @@
         <v>59544</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>40</v>
@@ -3657,13 +3681,13 @@
         <v>42872</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>97</v>
@@ -3672,13 +3696,13 @@
         <v>102416</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3717,13 @@
         <v>66341</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>36</v>
@@ -3708,13 +3732,13 @@
         <v>39618</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>96</v>
@@ -3723,13 +3747,13 @@
         <v>105959</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3768,13 @@
         <v>223367</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>150</v>
@@ -3759,13 +3783,13 @@
         <v>163052</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>360</v>
@@ -3774,13 +3798,13 @@
         <v>386419</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3819,13 @@
         <v>334092</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>223</v>
@@ -3810,34 +3834,34 @@
         <v>243796</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>547</v>
       </c>
       <c r="N37" s="7">
-        <v>577887</v>
+        <v>577888</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="7">
         <v>678</v>
@@ -3846,13 +3870,13 @@
         <v>732481</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>421</v>
@@ -3861,13 +3885,13 @@
         <v>452182</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>1099</v>
@@ -3876,13 +3900,13 @@
         <v>1184663</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3921,13 @@
         <v>1415825</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H39" s="7">
         <v>870</v>
@@ -3912,33 +3936,33 @@
         <v>941520</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M39" s="7">
         <v>2199</v>
       </c>
       <c r="N39" s="7">
-        <v>2357344</v>
+        <v>2357345</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3959,7 +3983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9CF40B-6CDA-4834-8034-B42A1B7ABA3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F11052-8ABE-4072-95F4-4E40DF2BFDA3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3976,7 +4000,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4089,7 +4113,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4098,13 +4122,13 @@
         <v>1764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4113,13 +4137,13 @@
         <v>2872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4158,13 @@
         <v>2923</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4149,13 +4173,13 @@
         <v>3759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4164,13 +4188,13 @@
         <v>6682</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4209,13 @@
         <v>6188</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4200,13 +4224,13 @@
         <v>3535</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4215,13 +4239,13 @@
         <v>9722</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4260,13 @@
         <v>13167</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4251,13 +4275,13 @@
         <v>8411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4266,19 +4290,19 @@
         <v>21578</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
         <v>20</v>
@@ -4287,13 +4311,13 @@
         <v>20635</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4302,13 +4326,13 @@
         <v>12422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -4317,13 +4341,13 @@
         <v>33057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>142</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4362,13 @@
         <v>44021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4353,13 +4377,13 @@
         <v>29891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -4368,18 +4392,18 @@
         <v>73912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4391,13 +4415,13 @@
         <v>12364</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4406,13 +4430,13 @@
         <v>11864</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4421,13 +4445,13 @@
         <v>24228</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4466,13 @@
         <v>25496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4457,13 +4481,13 @@
         <v>15076</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -4472,13 +4496,13 @@
         <v>40572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4517,13 @@
         <v>33385</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -4508,13 +4532,13 @@
         <v>31783</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -4523,13 +4547,13 @@
         <v>65168</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>213</v>
+        <v>346</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4568,13 @@
         <v>70384</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -4559,13 +4583,13 @@
         <v>38946</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>338</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="M13" s="7">
         <v>105</v>
@@ -4574,19 +4598,19 @@
         <v>109330</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
         <v>53</v>
@@ -4595,13 +4619,13 @@
         <v>57640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4610,13 +4634,13 @@
         <v>39809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -4625,13 +4649,13 @@
         <v>97448</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4670,13 @@
         <v>199269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -4661,13 +4685,13 @@
         <v>137478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
         <v>330</v>
@@ -4676,13 +4700,13 @@
         <v>336747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4723,13 @@
         <v>9328</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>354</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4714,13 +4738,13 @@
         <v>14347</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4729,13 +4753,13 @@
         <v>23675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>359</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,10 +4777,10 @@
         <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4765,13 +4789,13 @@
         <v>24290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -4780,13 +4804,13 @@
         <v>54510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4825,13 @@
         <v>88232</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -4816,13 +4840,13 @@
         <v>56678</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="M18" s="7">
         <v>137</v>
@@ -4831,13 +4855,13 @@
         <v>144909</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4876,13 @@
         <v>113771</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -4867,13 +4891,13 @@
         <v>69643</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
         <v>175</v>
@@ -4882,19 +4906,19 @@
         <v>183413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
         <v>152</v>
@@ -4903,13 +4927,13 @@
         <v>172490</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>101</v>
@@ -4918,13 +4942,13 @@
         <v>108814</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>253</v>
@@ -4933,13 +4957,13 @@
         <v>281304</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4978,13 @@
         <v>414041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -4969,13 +4993,13 @@
         <v>273771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
         <v>639</v>
@@ -4984,18 +5008,18 @@
         <v>687812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5007,13 +5031,13 @@
         <v>26535</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -5025,10 +5049,10 @@
         <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -5037,13 +5061,13 @@
         <v>40138</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>246</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5082,13 @@
         <v>40143</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>403</v>
+        <v>13</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -5073,13 +5097,13 @@
         <v>39380</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="M23" s="7">
         <v>75</v>
@@ -5088,13 +5112,13 @@
         <v>79523</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>13</v>
+        <v>418</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5133,13 @@
         <v>107447</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="H24" s="7">
         <v>75</v>
@@ -5124,13 +5148,13 @@
         <v>76041</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>283</v>
+        <v>424</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="M24" s="7">
         <v>169</v>
@@ -5139,13 +5163,13 @@
         <v>183488</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>413</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5184,13 @@
         <v>93703</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -5175,13 +5199,13 @@
         <v>66438</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>153</v>
@@ -5190,19 +5214,19 @@
         <v>160141</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>421</v>
+        <v>218</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
         <v>87</v>
@@ -5211,13 +5235,13 @@
         <v>95992</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -5226,13 +5250,13 @@
         <v>75097</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -5241,13 +5265,13 @@
         <v>171089</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5286,13 @@
         <v>363820</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -5277,13 +5301,13 @@
         <v>270558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -5292,13 +5316,13 @@
         <v>634378</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5339,13 @@
         <v>18813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -5330,13 +5354,13 @@
         <v>16221</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -5345,13 +5369,13 @@
         <v>35034</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5390,13 @@
         <v>24944</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>160</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -5381,13 +5405,13 @@
         <v>19223</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>444</v>
+        <v>245</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -5396,13 +5420,13 @@
         <v>44167</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>446</v>
+        <v>246</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>447</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5441,13 @@
         <v>72146</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="H30" s="7">
         <v>61</v>
@@ -5435,10 +5459,10 @@
         <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="M30" s="7">
         <v>132</v>
@@ -5447,13 +5471,13 @@
         <v>134961</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>454</v>
+        <v>282</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5492,13 @@
         <v>101336</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H31" s="7">
         <v>90</v>
@@ -5483,13 +5507,13 @@
         <v>95426</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M31" s="7">
         <v>192</v>
@@ -5498,19 +5522,19 @@
         <v>196763</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7">
         <v>178</v>
@@ -5519,13 +5543,13 @@
         <v>183932</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H32" s="7">
         <v>122</v>
@@ -5534,13 +5558,13 @@
         <v>131788</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="M32" s="7">
         <v>300</v>
@@ -5549,13 +5573,13 @@
         <v>315720</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5594,13 @@
         <v>401171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H33" s="7">
         <v>307</v>
@@ -5585,13 +5609,13 @@
         <v>325474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M33" s="7">
         <v>700</v>
@@ -5600,13 +5624,13 @@
         <v>726645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5647,13 @@
         <v>68148</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>116</v>
+        <v>453</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -5638,13 +5662,13 @@
         <v>57800</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>56</v>
+        <v>483</v>
       </c>
       <c r="M34" s="7">
         <v>117</v>
@@ -5653,13 +5677,13 @@
         <v>125948</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>479</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5698,13 @@
         <v>123726</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>63</v>
+        <v>486</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="H35" s="7">
         <v>103</v>
@@ -5689,13 +5713,13 @@
         <v>101727</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>65</v>
+        <v>490</v>
       </c>
       <c r="M35" s="7">
         <v>218</v>
@@ -5704,13 +5728,13 @@
         <v>225454</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5749,13 @@
         <v>307397</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>214</v>
+        <v>493</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H36" s="7">
         <v>231</v>
@@ -5740,13 +5764,13 @@
         <v>230852</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="M36" s="7">
         <v>514</v>
@@ -5755,13 +5779,13 @@
         <v>538249</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>422</v>
+        <v>499</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5800,13 @@
         <v>392361</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="H37" s="7">
         <v>273</v>
@@ -5791,13 +5815,13 @@
         <v>278864</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="M37" s="7">
         <v>647</v>
@@ -5806,19 +5830,19 @@
         <v>671225</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="7">
         <v>490</v>
@@ -5827,13 +5851,13 @@
         <v>530689</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H38" s="7">
         <v>350</v>
@@ -5842,13 +5866,13 @@
         <v>367929</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="M38" s="7">
         <v>840</v>
@@ -5857,13 +5881,13 @@
         <v>898618</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5902,13 @@
         <v>1422322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H39" s="7">
         <v>1013</v>
@@ -5893,13 +5917,13 @@
         <v>1037172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M39" s="7">
         <v>2336</v>
@@ -5908,18 +5932,18 @@
         <v>2459494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
